--- a/JPD123/hán tự.xlsx
+++ b/JPD123/hán tự.xlsx
@@ -27,9 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>食</t>
     </r>
     <r>
@@ -130,6 +136,15 @@
     <t>Hiện nay</t>
   </si>
   <si>
+    <t>買</t>
+  </si>
+  <si>
+    <t>ka(kai)</t>
+  </si>
+  <si>
+    <t>mua</t>
+  </si>
+  <si>
     <t>先生</t>
   </si>
   <si>
@@ -137,6 +152,78 @@
   </si>
   <si>
     <t>giáo viên</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>ひと</t>
+  </si>
+  <si>
+    <t>người</t>
+  </si>
+  <si>
+    <t>毎日</t>
+  </si>
+  <si>
+    <t>mainichi</t>
+  </si>
+  <si>
+    <t>hằng ngày</t>
+  </si>
+  <si>
+    <t>買物</t>
+  </si>
+  <si>
+    <t>kaimôn</t>
+  </si>
+  <si>
+    <t>mua sắm</t>
+  </si>
+  <si>
+    <t>飲べ物</t>
+  </si>
+  <si>
+    <t>nomimono</t>
+  </si>
+  <si>
+    <t>đồ uống</t>
+  </si>
+  <si>
+    <t>読べ物</t>
+  </si>
+  <si>
+    <t>yomimono</t>
+  </si>
+  <si>
+    <t>đọc</t>
+  </si>
+  <si>
+    <t>小さい</t>
+  </si>
+  <si>
+    <t>chisai</t>
+  </si>
+  <si>
+    <t>nhỏ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">毎週 </t>
+  </si>
+  <si>
+    <t>maishuu</t>
+  </si>
+  <si>
+    <t>mỗi tuần</t>
+  </si>
+  <si>
+    <t>土曜日</t>
+  </si>
+  <si>
+    <t>doyoobi</t>
+  </si>
+  <si>
+    <t>thứ bảy</t>
   </si>
 </sst>
 </file>
@@ -149,7 +236,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +253,12 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF282E3E"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -640,137 +733,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +875,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1316,10 +1412,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1439,6 +1535,105 @@
         <v>29</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" spans="1:3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
